--- a/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEDEB3E-F0BE-4E18-B08A-84330818F7B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6187B6-AD74-4238-B153-60591D0D2CF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -85,16 +85,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ここに機能名を書く</t>
-    <rPh sb="3" eb="6">
-      <t>キノウメイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>特記事項があればここに書く</t>
     <rPh sb="0" eb="2">
       <t>トッキ</t>
@@ -130,6 +120,103 @@
   </si>
   <si>
     <t>AnotherSky</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿一覧</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿詳細閲覧</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿作成</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿編集</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>埋め込みyoutube</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿保存</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿削除</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退会</t>
+    <rPh sb="0" eb="2">
+      <t>タイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オフライン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -513,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -521,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="37.5">
@@ -529,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +631,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -580,13 +667,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
@@ -594,7 +681,9 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
@@ -603,7 +692,9 @@
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
@@ -612,7 +703,9 @@
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
@@ -621,7 +714,9 @@
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
@@ -630,7 +725,9 @@
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
@@ -639,7 +736,9 @@
       <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
@@ -648,7 +747,9 @@
       <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
@@ -657,7 +758,9 @@
       <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
@@ -666,28 +769,42 @@
       <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>

--- a/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6187B6-AD74-4238-B153-60591D0D2CF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA89521B-67CC-4B9E-943E-F41F6317EF3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -98,19 +98,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ここに機能の概要を書く</t>
-    <rPh sb="3" eb="5">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Scrum3</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -217,6 +204,187 @@
   </si>
   <si>
     <t>オフライン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿されている内容を一覧表示。新しい順にタイムラインのように表示。</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地域などのカテゴリーを選択させる</t>
+    <rPh sb="0" eb="2">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス、パスワード、名前などを登録</t>
+    <rPh sb="14" eb="16">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス、パスワードでログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿一覧に表示されているものをクリックして詳細を表示する</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウイチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地域、タイトル、場所、画像（複数可）、テキスト（複数可）、動画リンク（１個）　などを登録</t>
+    <rPh sb="0" eb="2">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録済みの記事を編集する</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクズ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録済みの記事を削除する</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクズ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yutubeのリンクを動画リンク（１個）として登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気に入った記事を登録する</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ削除とともに登録した記事も削除する</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザにプロフィールを追加、修正、削除する</t>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分が選んだ記事をオフラインで見れる</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ミ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -600,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -608,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="37.5">
@@ -616,7 +784,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -631,7 +799,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -662,150 +830,200 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>8</v>
+      </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>9</v>
+      </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
       <c r="B12" s="1">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
       <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="39.950000000000003" customHeight="1">

--- a/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA89521B-67CC-4B9E-943E-F41F6317EF3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099D0171-797F-47D9-9E2A-C247A358A713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロダクトの概要" sheetId="2" r:id="rId1"/>
@@ -323,10 +323,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>yutubeのリンクを動画リンク（１個）として登録</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>気に入った記事を登録する</t>
     <rPh sb="0" eb="1">
       <t>キ</t>
@@ -385,6 +381,10 @@
     <rPh sb="15" eb="16">
       <t>ミ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>youtubeのリンクを動画リンク（１個）として登録</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -756,10 +756,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="71.09765625" style="4" customWidth="1"/>
     <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -779,7 +779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="37.5">
+    <row r="3" spans="1:2" ht="34.799999999999997">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -799,16 +799,16 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.09765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.3984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -829,7 +829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:5" ht="39.9" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -846,7 +846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:5" ht="39.9" customHeight="1">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -861,7 +861,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:5" ht="39.9" customHeight="1">
       <c r="A4" s="1">
         <v>8</v>
       </c>
@@ -876,7 +876,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:5" ht="39.9" customHeight="1">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -891,7 +891,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:5" ht="39.9" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -906,7 +906,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:5" ht="39.9" customHeight="1">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -921,7 +921,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:5" ht="39.9" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -936,7 +936,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:5" ht="39.9" customHeight="1">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -947,11 +947,11 @@
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:5" ht="39.9" customHeight="1">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -962,11 +962,11 @@
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:5" ht="39.9" customHeight="1">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -981,7 +981,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:5" ht="39.9" customHeight="1">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -992,11 +992,11 @@
         <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="13" spans="1:5" ht="39.9" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1007,11 +1007,11 @@
         <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:5" ht="39.9" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1022,25 +1022,25 @@
         <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="15" spans="1:5" ht="39.9" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="16" spans="1:5" ht="39.9" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="17" spans="1:5" ht="39.9" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>

--- a/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA89521B-67CC-4B9E-943E-F41F6317EF3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE81F85-2129-7347-AA9F-DCF806DFBCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロダクトの概要" sheetId="2" r:id="rId1"/>
@@ -756,10 +756,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="71.1640625" style="4" customWidth="1"/>
     <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -779,7 +779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="37.5">
+    <row r="3" spans="1:2" ht="40">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -799,16 +799,16 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -829,7 +829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:5" ht="40" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -846,7 +846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:5" ht="40" customHeight="1">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -861,7 +861,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="1">
         <v>8</v>
       </c>
@@ -876,7 +876,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -891,7 +891,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -906,7 +906,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -921,7 +921,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:5" ht="40" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -936,7 +936,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:5" ht="40" customHeight="1">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -951,7 +951,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:5" ht="40" customHeight="1">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -966,7 +966,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:5" ht="40" customHeight="1">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -981,7 +981,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:5" ht="40" customHeight="1">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -996,7 +996,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="13" spans="1:5" ht="40" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:5" ht="40" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1026,21 +1026,21 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="15" spans="1:5" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="16" spans="1:5" ht="40" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="17" spans="1:5" ht="40" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>

--- a/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE81F85-2129-7347-AA9F-DCF806DFBCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12EE3D4-8AEF-4FEF-87D3-52230839B1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロダクトの概要" sheetId="2" r:id="rId1"/>
@@ -14,17 +14,28 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">プロダクトバックログ!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -165,16 +176,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>埋め込みyoutube</t>
-    <rPh sb="0" eb="1">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>投稿保存</t>
     <rPh sb="0" eb="4">
       <t>トウコウホゾン</t>
@@ -320,10 +321,6 @@
     <rPh sb="8" eb="10">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>yutubeのリンクを動画リンク（１個）として登録</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -756,10 +753,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="71.19921875" style="4" customWidth="1"/>
     <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -779,7 +776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="40">
+    <row r="3" spans="1:2" ht="34.799999999999997">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -796,19 +793,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.19921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -829,223 +826,220 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="40" customHeight="1">
+    <row r="2" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
+        <f>1</f>
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40" customHeight="1">
+    <row r="3" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="1">
         <v>4</v>
       </c>
       <c r="B3" s="1">
+        <f>B2+1</f>
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="40" customHeight="1">
+    <row r="4" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
+        <f t="shared" ref="B4:B13" si="0">B3+1</f>
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="40" customHeight="1">
+    <row r="5" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="40" customHeight="1">
+    <row r="6" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="40" customHeight="1">
+    <row r="7" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="40" customHeight="1">
+    <row r="8" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="40" customHeight="1">
+    <row r="9" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="40" customHeight="1">
+    <row r="10" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="40" customHeight="1">
+    <row r="11" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="40" customHeight="1">
+    <row r="12" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="40" customHeight="1">
+    <row r="13" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="40" customHeight="1">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>37</v>
-      </c>
+    <row r="14" spans="1:5" ht="40.049999999999997" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="40" customHeight="1">
+    <row r="15" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="40" customHeight="1">
+    <row r="16" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="40" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12EE3D4-8AEF-4FEF-87D3-52230839B1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE62C5E-9FE4-4265-AF76-71D99A38A979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9144" yWindow="0" windowWidth="13992" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロダクトの概要" sheetId="2" r:id="rId1"/>
@@ -412,7 +412,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +422,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -466,6 +472,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,7 +808,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -834,7 +846,7 @@
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -852,7 +864,7 @@
         <f>B2+1</f>
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -868,7 +880,7 @@
         <f t="shared" ref="B4:B13" si="0">B3+1</f>
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -884,7 +896,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -900,7 +912,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -916,7 +928,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -932,7 +944,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -996,7 +1008,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="1" t="s">

--- a/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE62C5E-9FE4-4265-AF76-71D99A38A979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C395AA-5EE3-2143-905F-397BE315BC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9144" yWindow="0" windowWidth="13992" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロダクトの概要" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -96,19 +96,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>特記事項があればここに書く</t>
-    <rPh sb="0" eb="2">
-      <t>トッキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジコウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Scrum3</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -381,6 +368,48 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第２スプリントで実施</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ2</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほほ完成</t>
+    <rPh sb="2" eb="4">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バック完了、フロント未結合</t>
+    <rPh sb="10" eb="13">
+      <t>ミケテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バック完了、フロント未結合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="1">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -459,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -472,9 +501,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -765,10 +791,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.19921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="71.1640625" style="4" customWidth="1"/>
     <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -777,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -785,15 +811,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="34.799999999999997">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="40">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -808,16 +834,16 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.19921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -838,7 +864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:5" ht="40" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -846,17 +872,17 @@
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="40.049999999999997" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40" customHeight="1">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -864,15 +890,17 @@
         <f>B2+1</f>
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="40.049999999999997" customHeight="1">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -880,15 +908,17 @@
         <f t="shared" ref="B4:B13" si="0">B3+1</f>
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="40.049999999999997" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -896,15 +926,17 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="40.049999999999997" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -912,15 +944,17 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="40.049999999999997" customHeight="1">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -928,15 +962,17 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="40.049999999999997" customHeight="1">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="40" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -944,15 +980,17 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="40.049999999999997" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="40" customHeight="1">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -961,14 +999,14 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:5" ht="40" customHeight="1">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -977,14 +1015,14 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:5" ht="40" customHeight="1">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -993,14 +1031,14 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:5" ht="40" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1008,15 +1046,15 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>22</v>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:5" ht="40" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1025,28 +1063,28 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:5" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="40.049999999999997" customHeight="1">
+    <row r="15" spans="1:5" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="40.049999999999997" customHeight="1">
+    <row r="16" spans="1:5" ht="40" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C395AA-5EE3-2143-905F-397BE315BC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F457B9-9DFD-A942-8FE1-28808738F63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="780" windowWidth="30660" windowHeight="20300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロダクトの概要" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -180,18 +180,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>退会</t>
-    <rPh sb="0" eb="2">
-      <t>タイカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プロフィール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オフライン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -327,22 +316,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザ削除とともに登録した記事も削除する</t>
-    <rPh sb="3" eb="5">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザにプロフィールを追加、修正、削除する</t>
     <rPh sb="11" eb="13">
       <t>ツイカ</t>
@@ -352,22 +325,6 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自分が選んだ記事をオフラインで見れる</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -834,7 +791,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -876,10 +833,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40" customHeight="1">
@@ -894,10 +851,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
@@ -912,10 +869,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
@@ -930,10 +887,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
@@ -948,10 +905,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
@@ -966,10 +923,10 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
@@ -984,10 +941,10 @@
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="40" customHeight="1">
@@ -1002,7 +959,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1018,13 +975,13 @@
         <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="40" customHeight="1">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
@@ -1034,40 +991,22 @@
         <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="40" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="40" customHeight="1">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="40" customHeight="1">

--- a/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C395AA-5EE3-2143-905F-397BE315BC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39445A1-5D87-43C7-B874-335464250BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロダクトの概要" sheetId="2" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -503,6 +503,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -791,10 +794,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="71.19921875" style="4" customWidth="1"/>
     <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -814,7 +817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="40">
+    <row r="3" spans="1:2" ht="34.799999999999997">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -833,17 +836,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.19921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -864,7 +867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="40" customHeight="1">
+    <row r="2" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -882,7 +885,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40" customHeight="1">
+    <row r="3" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -900,7 +903,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="40" customHeight="1">
+    <row r="4" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -918,7 +921,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="40" customHeight="1">
+    <row r="5" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -936,7 +939,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="40" customHeight="1">
+    <row r="6" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -954,7 +957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="40" customHeight="1">
+    <row r="7" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -972,7 +975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="40" customHeight="1">
+    <row r="8" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -980,7 +983,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -990,7 +993,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="40" customHeight="1">
+    <row r="9" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -998,7 +1001,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1006,7 +1009,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="40" customHeight="1">
+    <row r="10" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1014,7 +1017,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1022,7 +1025,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="40" customHeight="1">
+    <row r="11" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -1030,7 +1033,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1038,7 +1041,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="40" customHeight="1">
+    <row r="12" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1046,7 +1049,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1054,7 +1057,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="40" customHeight="1">
+    <row r="13" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1070,21 +1073,21 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="40" customHeight="1">
+    <row r="14" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="40" customHeight="1">
+    <row r="15" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="40" customHeight="1">
+    <row r="16" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39445A1-5D87-43C7-B874-335464250BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F6B5C7-8A3C-AA4B-842B-91FB01C3EF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="780" windowWidth="30660" windowHeight="20300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロダクトの概要" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -180,18 +180,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>退会</t>
-    <rPh sb="0" eb="2">
-      <t>タイカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プロフィール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オフライン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -327,22 +316,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザ削除とともに登録した記事も削除する</t>
-    <rPh sb="3" eb="5">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザにプロフィールを追加、修正、削除する</t>
     <rPh sb="11" eb="13">
       <t>ツイカ</t>
@@ -352,22 +325,6 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自分が選んだ記事をオフラインで見れる</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -488,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -503,9 +460,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -794,10 +748,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.19921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="71.1640625" style="4" customWidth="1"/>
     <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -817,7 +771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="34.799999999999997">
+    <row r="3" spans="1:2" ht="40">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -836,17 +790,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.19921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -867,7 +821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:5" ht="40" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -879,13 +833,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="40.049999999999997" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40" customHeight="1">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -897,13 +851,13 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="40.049999999999997" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -915,13 +869,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="40.049999999999997" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -933,13 +887,13 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="40.049999999999997" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -951,13 +905,13 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="40.049999999999997" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -969,13 +923,13 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="40.049999999999997" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="40" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -983,17 +937,17 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="40.049999999999997" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="40" customHeight="1">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -1001,15 +955,15 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:5" ht="40" customHeight="1">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1017,15 +971,15 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:5" ht="40" customHeight="1">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -1033,61 +987,43 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="40.049999999999997" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
+    <row r="12" spans="1:5" ht="40" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="40.049999999999997" customHeight="1">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
+    <row r="13" spans="1:5" ht="40" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:5" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="40.049999999999997" customHeight="1">
+    <row r="15" spans="1:5" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="40.049999999999997" customHeight="1">
+    <row r="16" spans="1:5" ht="40" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F6B5C7-8A3C-AA4B-842B-91FB01C3EF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C142F56E-57A6-E84C-BC1E-7BEEEF1A0FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="780" windowWidth="30660" windowHeight="20300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="780" windowWidth="30660" windowHeight="20260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロダクトの概要" sheetId="2" r:id="rId1"/>
@@ -316,19 +316,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザにプロフィールを追加、修正、削除する</t>
-    <rPh sb="11" eb="13">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>第２スプリントで実施</t>
     <rPh sb="0" eb="1">
       <t>ダイ2</t>
@@ -368,6 +355,10 @@
     <rPh sb="0" eb="1">
       <t>カンリョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去の投稿とお気に入りの投稿を表示する</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -791,7 +782,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -836,7 +827,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40" customHeight="1">
@@ -854,7 +845,7 @@
         <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
@@ -862,7 +853,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B13" si="0">B3+1</f>
+        <f t="shared" ref="B4:B11" si="0">B3+1</f>
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -872,7 +863,7 @@
         <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
@@ -890,7 +881,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
@@ -908,7 +899,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
@@ -926,7 +917,7 @@
         <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
@@ -944,7 +935,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="40" customHeight="1">
@@ -991,7 +982,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1"/>
     </row>

--- a/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C142F56E-57A6-E84C-BC1E-7BEEEF1A0FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB4B771-3A9E-9944-AF6D-3571157CF976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="780" windowWidth="30660" windowHeight="20260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -359,6 +359,13 @@
   </si>
   <si>
     <t>過去の投稿とお気に入りの投稿を表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使い方など</t>
+    <rPh sb="0" eb="1">
+      <t>ツカイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -782,7 +789,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -987,9 +994,15 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="40" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>

--- a/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB4B771-3A9E-9944-AF6D-3571157CF976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D1571C-F8D6-534A-9E29-C2C762E78FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="780" windowWidth="30660" windowHeight="20260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -362,7 +362,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>使い方など</t>
+    <t>使い方の説明</t>
+    <rPh sb="0" eb="1">
+      <t>ツカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使い方</t>
     <rPh sb="0" eb="1">
       <t>ツカイ</t>
     </rPh>
@@ -789,7 +799,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -1001,9 +1011,11 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="40" customHeight="1">

--- a/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D1571C-F8D6-534A-9E29-C2C762E78FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5939CB0F-E989-2742-A6B1-A1BF3A4F1C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="780" windowWidth="30660" windowHeight="20260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="780" windowWidth="30660" windowHeight="20260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロダクトの概要" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -316,16 +316,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>第２スプリントで実施</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ2</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジッセィ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
@@ -333,24 +323,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ほほ完成</t>
-    <rPh sb="2" eb="4">
-      <t>カンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バック完了、フロント未結合</t>
-    <rPh sb="10" eb="13">
-      <t>ミケテゥ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バック完了、フロント未結合</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>完了</t>
     <rPh sb="0" eb="1">
       <t>カンリョウ</t>
@@ -376,6 +348,10 @@
     <rPh sb="0" eb="1">
       <t>ツカイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第２スプリントで実施</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -799,7 +775,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -844,7 +820,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40" customHeight="1">
@@ -862,7 +838,7 @@
         <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
@@ -880,7 +856,7 @@
         <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
@@ -898,7 +874,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
@@ -916,7 +892,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
@@ -934,7 +910,7 @@
         <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
@@ -952,7 +928,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="40" customHeight="1">
@@ -969,7 +945,9 @@
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="40" customHeight="1">
       <c r="A10" s="1">
@@ -985,7 +963,9 @@
       <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="40" customHeight="1">
       <c r="A11" s="1">
@@ -999,9 +979,11 @@
         <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="40" customHeight="1">
       <c r="A12" s="1">
@@ -1011,12 +993,14 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="40" customHeight="1">
       <c r="A13" s="1"/>

--- a/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5939CB0F-E989-2742-A6B1-A1BF3A4F1C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63B55AC-958C-DD44-A27B-6A143E9B309F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="780" windowWidth="30660" windowHeight="20260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -775,7 +775,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>

--- a/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D1571C-F8D6-534A-9E29-C2C762E78FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442A31BD-FD77-4CD7-8DEE-80E8E097FC1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="780" windowWidth="30660" windowHeight="20260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="780" windowWidth="30660" windowHeight="20265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロダクトの概要" sheetId="2" r:id="rId1"/>
@@ -24,10 +24,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -756,10 +756,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="71.125" style="4" customWidth="1"/>
     <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -779,7 +779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="40">
+    <row r="3" spans="1:2" ht="37.5">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -798,17 +798,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -829,7 +829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="40" customHeight="1">
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -847,7 +847,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40" customHeight="1">
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -865,7 +865,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="40" customHeight="1">
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -883,7 +883,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="40" customHeight="1">
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -901,7 +901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="40" customHeight="1">
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -919,7 +919,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="40" customHeight="1">
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -937,7 +937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="40" customHeight="1">
+    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -955,7 +955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="40" customHeight="1">
+    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -969,9 +969,11 @@
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="40" customHeight="1">
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -985,9 +987,11 @@
       <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="40" customHeight="1">
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -1001,9 +1005,11 @@
       <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="40" customHeight="1">
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -1016,30 +1022,32 @@
       <c r="D12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="40" customHeight="1">
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="40" customHeight="1">
+    <row r="14" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="40" customHeight="1">
+    <row r="15" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="40" customHeight="1">
+    <row r="16" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum3_プロダクトバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442A31BD-FD77-4CD7-8DEE-80E8E097FC1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84870F3-091A-7D47-989F-7B9E7D0DC62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="780" windowWidth="30660" windowHeight="20265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="500" windowWidth="30660" windowHeight="19200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロダクトの概要" sheetId="2" r:id="rId1"/>
@@ -24,10 +24,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -316,16 +316,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>第２スプリントで実施</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ2</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジッセィ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
@@ -375,6 +365,17 @@
     <t>使い方</t>
     <rPh sb="0" eb="1">
       <t>ツカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほぼ完成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほぼ完成</t>
+    <rPh sb="0" eb="2">
+      <t>ホボカンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -756,10 +757,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="71.1640625" style="4" customWidth="1"/>
     <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -779,7 +780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="37.5">
+    <row r="3" spans="1:2" ht="40">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -798,17 +799,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="200" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -829,7 +830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:5" ht="40" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -844,10 +845,10 @@
         <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40" customHeight="1">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -862,10 +863,10 @@
         <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -880,10 +881,10 @@
         <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -898,10 +899,10 @@
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -916,10 +917,10 @@
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -934,10 +935,10 @@
         <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="40" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -952,10 +953,10 @@
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="40" customHeight="1">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -973,7 +974,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:5" ht="40" customHeight="1">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -991,7 +992,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:5" ht="40" customHeight="1">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -1003,13 +1004,13 @@
         <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="40" customHeight="1">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -1017,37 +1018,37 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="13" spans="1:5" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:5" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="15" spans="1:5" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="16" spans="1:5" ht="40" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
